--- a/Source/Communication_Commands.xlsx
+++ b/Source/Communication_Commands.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,106 @@
   </si>
   <si>
     <t>Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Sample Packet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v40010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set the speed to 10 rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set coil layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y40010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set the coil layer to 10 layers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t40050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set turns per layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set coil height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h40010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set turns per layer to 50 turns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set the coil height to 10 mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excute command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l
+r
+m
+n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left 5mm
+right 5mm
+left 0.5mm
+right 0.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s
+p
+q
+o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start
+pause
+stop
+connect check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,6 +511,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,6 +534,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,17 +870,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="6" width="10.625" customWidth="1"/>
+    <col min="3" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -758,7 +891,7 @@
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -767,23 +900,23 @@
       <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
@@ -942,14 +1075,118 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G18" s="14"/>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
